--- a/Output/AppendixTab3.xlsx
+++ b/Output/AppendixTab3.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4002,6 +4002,72 @@
         <v>0.885925011520955</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>US_NYC13.07.2020</t>
+        </is>
+      </c>
+      <c r="C111" s="2">
+        <v>44025</v>
+      </c>
+      <c r="D111">
+        <v>0.08653185259876317</v>
+      </c>
+      <c r="E111">
+        <v>0.07733452818404746</v>
+      </c>
+      <c r="F111">
+        <v>0.008800041483348122</v>
+      </c>
+      <c r="G111">
+        <v>0.06853448670069934</v>
+      </c>
+      <c r="H111">
+        <v>0.1137918817116853</v>
+      </c>
+      <c r="I111">
+        <v>0.8862081182883147</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>US_NYC14.07.2020</t>
+        </is>
+      </c>
+      <c r="C112" s="2">
+        <v>44026</v>
+      </c>
+      <c r="D112">
+        <v>0.08647887284904599</v>
+      </c>
+      <c r="E112">
+        <v>0.07728154843433027</v>
+      </c>
+      <c r="F112">
+        <v>0.008774084511836753</v>
+      </c>
+      <c r="G112">
+        <v>0.0685074639224935</v>
+      </c>
+      <c r="H112">
+        <v>0.1135340154227435</v>
+      </c>
+      <c r="I112">
+        <v>0.8864659845772565</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
